--- a/data/case1/14/Q2_5.xlsx
+++ b/data/case1/14/Q2_5.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.25652791214032078</v>
+        <v>0.21888754210301897</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999283988359</v>
+        <v>-0.0059999999754793976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999326649771</v>
+        <v>-0.0039999999781912265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998793525151</v>
+        <v>-0.0079999999599902338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999268515154</v>
+        <v>-0.002999999977112644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999165509763</v>
+        <v>-0.0019999999747444264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998259923117</v>
+        <v>-0.0099999999434996489</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998262840784</v>
+        <v>-0.0099999999447746291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999186275375</v>
+        <v>-0.0019999999789255263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999214217468</v>
+        <v>-0.0019999999818249847</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.028155687670419205</v>
+        <v>-0.0029999999782459597</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999040152829</v>
+        <v>0.046241383756871368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999016767092</v>
+        <v>-0.0034999999774871782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.007999999850548889</v>
+        <v>-0.007999999959966253</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999992968413665</v>
+        <v>0.021146649390370698</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999188886619</v>
+        <v>-0.0019999999835818016</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.01771933717346208</v>
+        <v>-0.0019999999831101789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.024543207398492584</v>
+        <v>-0.0039999999751332282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999492068561</v>
+        <v>-0.0039999999828941313</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999244013651</v>
+        <v>-0.039781250589815187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999184328061</v>
+        <v>-0.0039999999778714823</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.065153393897973366</v>
+        <v>-0.0039999999777320383</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999172518628</v>
+        <v>-0.0049999999729459788</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999741403762</v>
+        <v>-0.019999999911735955</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999737954965</v>
+        <v>-0.019999999910611521</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999083341606</v>
+        <v>-0.0024999999713273269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999025299147</v>
+        <v>-0.020250536675115782</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999998832691546</v>
+        <v>-0.0019999999631163945</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998091194726</v>
+        <v>-0.0069999999376495481</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999202893228</v>
+        <v>-0.059999999726513931</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999997943472891</v>
+        <v>-0.0069999999329155571</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999997596000867</v>
+        <v>-0.0099999999208275625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998270570103</v>
+        <v>-0.0039999999443285361</v>
       </c>
     </row>
   </sheetData>
